--- a/PZ03.xlsx
+++ b/PZ03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
   <si>
     <t xml:space="preserve">PREFIX</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Imitacja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i20.5</t>
   </si>
   <si>
     <t xml:space="preserve">I21.5</t>
@@ -676,7 +673,7 @@
   <dimension ref="A1:AB909"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,25 +752,23 @@
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
@@ -795,33 +790,33 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
@@ -843,33 +838,33 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -891,33 +886,33 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
@@ -939,33 +934,33 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
@@ -987,41 +982,41 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1041,33 +1036,33 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
@@ -1089,31 +1084,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -1135,36 +1130,36 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>79</v>
+      <c r="J10" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1185,33 +1180,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
@@ -1233,33 +1228,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
@@ -1281,37 +1276,37 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
@@ -1333,33 +1328,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
@@ -1381,31 +1376,31 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
@@ -1427,31 +1422,31 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
@@ -1473,36 +1468,36 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>122</v>
+      <c r="J17" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -1523,33 +1518,33 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
